--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2019_Effort and strategies of emotion regulation\01_Project management\07_Study ESER_1\01_Paradigm\Effort_and_ERStrategies\Stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nummer</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Durchschnitt R</t>
-  </si>
-  <si>
-    <t>Durchschnitt G</t>
-  </si>
-  <si>
-    <t>Durchschnitt B</t>
   </si>
   <si>
     <t>083</t>
@@ -502,7 +493,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,15 +516,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>119.330960416667</v>
@@ -550,17 +541,12 @@
       <c r="F2" s="6">
         <v>3.33</v>
       </c>
-      <c r="G2" s="4">
-        <f>AVERAGE(B2:B26)</f>
-        <v>123.46068288159184</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>123.659470833333</v>
@@ -577,17 +563,12 @@
       <c r="F3" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="G3" s="5">
-        <f>AVERAGE(C2:C26)</f>
-        <v>104.35348013647464</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>127.64155416666701</v>
@@ -604,17 +585,12 @@
       <c r="F4" s="7">
         <v>3.04</v>
       </c>
-      <c r="G4" s="5">
-        <f>AVERAGE(D2:D26)</f>
-        <v>83.104340466796927</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>122.31058125</v>
@@ -626,7 +602,7 @@
         <v>75.365695833333305</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6">
         <v>2.79</v>
@@ -634,7 +610,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>127.5778</v>
@@ -654,7 +630,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>129.16018040974899</v>
@@ -674,7 +650,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>108.337809244792</v>
@@ -694,7 +670,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>109.883569081624</v>
@@ -714,7 +690,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>125.77027130127</v>
@@ -734,7 +710,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>127.956188201904</v>
@@ -754,7 +730,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>125.954966227214</v>
@@ -774,7 +750,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>116.506490071615</v>
@@ -794,7 +770,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>104.11705271403</v>
@@ -814,7 +790,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>134.01099522908501</v>
@@ -834,7 +810,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>129.04301071167001</v>
@@ -854,7 +830,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>128.25571695963501</v>
@@ -874,7 +850,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>110.001523335775</v>
@@ -894,7 +870,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>121.85169728597</v>
@@ -914,7 +890,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>132.38812383016</v>
@@ -934,7 +910,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>128.48226674397799</v>
@@ -954,7 +930,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>129.211404164632</v>
@@ -974,7 +950,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>130.807774861654</v>
@@ -994,7 +970,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>128.39965438842799</v>
@@ -1014,7 +990,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>127.54497782389301</v>
@@ -1034,7 +1010,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>118.313032786051</v>
@@ -1054,7 +1030,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1">
         <f>AVERAGE(E2:E26)</f>
@@ -1067,7 +1043,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <f>STDEV(E2:E26)</f>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nummer</t>
   </si>
@@ -53,15 +53,9 @@
     <t>7000</t>
   </si>
   <si>
-    <t>7001</t>
-  </si>
-  <si>
     <t>7002</t>
   </si>
   <si>
-    <t>7003</t>
-  </si>
-  <si>
     <t>7004</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>7009</t>
   </si>
   <si>
-    <t>7017</t>
-  </si>
-  <si>
     <t>7021</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
   </si>
   <si>
     <t>7185</t>
-  </si>
-  <si>
-    <t>7186</t>
-  </si>
-  <si>
-    <t>7187</t>
   </si>
   <si>
     <t>7211</t>
@@ -490,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,7 +587,7 @@
         <v>75.365695833333305</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6">
         <v>2.79</v>
@@ -653,19 +638,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>108.337809244792</v>
+        <v>109.883569081624</v>
       </c>
       <c r="C8" s="1">
-        <v>99.469619750976605</v>
+        <v>98.145156860351605</v>
       </c>
       <c r="D8" s="1">
-        <v>103.600011189779</v>
+        <v>75.031581878662095</v>
       </c>
       <c r="E8" s="8">
-        <v>5.32</v>
+        <v>4.97</v>
       </c>
       <c r="F8" s="8">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -673,19 +658,19 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>109.883569081624</v>
+        <v>127.956188201904</v>
       </c>
       <c r="C9" s="1">
-        <v>98.145156860351605</v>
+        <v>79.328689575195298</v>
       </c>
       <c r="D9" s="1">
-        <v>75.031581878662095</v>
+        <v>56.221780141194699</v>
       </c>
       <c r="E9" s="8">
-        <v>4.97</v>
+        <v>5.04</v>
       </c>
       <c r="F9" s="8">
-        <v>3.16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -693,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>125.77027130127</v>
+        <v>125.954966227214</v>
       </c>
       <c r="C10" s="1">
-        <v>87.933016459147098</v>
+        <v>90.083508809407604</v>
       </c>
       <c r="D10" s="1">
-        <v>64.378527323404995</v>
+        <v>68.000747680664105</v>
       </c>
       <c r="E10" s="8">
-        <v>5</v>
+        <v>4.88</v>
       </c>
       <c r="F10" s="8">
-        <v>3.07</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -713,19 +698,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>127.956188201904</v>
+        <v>116.506490071615</v>
       </c>
       <c r="C11" s="1">
-        <v>79.328689575195298</v>
+        <v>68.689559936523395</v>
       </c>
       <c r="D11" s="1">
-        <v>56.221780141194699</v>
+        <v>25.7163073221842</v>
       </c>
       <c r="E11" s="8">
-        <v>5.04</v>
+        <v>4.93</v>
       </c>
       <c r="F11" s="8">
-        <v>2</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,19 +718,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>125.954966227214</v>
+        <v>134.01099522908501</v>
       </c>
       <c r="C12" s="1">
-        <v>90.083508809407604</v>
+        <v>134.268538157145</v>
       </c>
       <c r="D12" s="1">
-        <v>68.000747680664105</v>
+        <v>135.12060546875</v>
       </c>
       <c r="E12" s="8">
-        <v>4.88</v>
+        <v>5.21</v>
       </c>
       <c r="F12" s="8">
-        <v>2.33</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -753,19 +738,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>116.506490071615</v>
+        <v>129.04301071167001</v>
       </c>
       <c r="C13" s="1">
-        <v>68.689559936523395</v>
+        <v>109.941677093506</v>
       </c>
       <c r="D13" s="1">
-        <v>25.7163073221842</v>
+        <v>79.750809987386106</v>
       </c>
       <c r="E13" s="8">
-        <v>4.93</v>
+        <v>4.63</v>
       </c>
       <c r="F13" s="8">
-        <v>3.01</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -773,19 +758,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>104.11705271403</v>
+        <v>128.25571695963501</v>
       </c>
       <c r="C14" s="1">
-        <v>93.521620432535798</v>
+        <v>91.534529368082701</v>
       </c>
       <c r="D14" s="1">
-        <v>89.834465026855497</v>
+        <v>77.684514363606795</v>
       </c>
       <c r="E14" s="8">
-        <v>5.18</v>
+        <v>4.99</v>
       </c>
       <c r="F14" s="8">
-        <v>3.12</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -793,19 +778,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>134.01099522908501</v>
+        <v>110.001523335775</v>
       </c>
       <c r="C15" s="1">
-        <v>134.268538157145</v>
+        <v>118.981335957845</v>
       </c>
       <c r="D15" s="1">
-        <v>135.12060546875</v>
+        <v>90.746757507324205</v>
       </c>
       <c r="E15" s="8">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="F15" s="8">
-        <v>4.17</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,19 +798,19 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>129.04301071167001</v>
+        <v>121.85169728597</v>
       </c>
       <c r="C16" s="1">
-        <v>109.941677093506</v>
+        <v>119.979860941569</v>
       </c>
       <c r="D16" s="1">
-        <v>79.750809987386106</v>
+        <v>121.60913848877</v>
       </c>
       <c r="E16" s="8">
-        <v>4.63</v>
+        <v>4.72</v>
       </c>
       <c r="F16" s="8">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,19 +818,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>128.25571695963501</v>
+        <v>132.38812383016</v>
       </c>
       <c r="C17" s="1">
-        <v>91.534529368082701</v>
+        <v>96.012905120849595</v>
       </c>
       <c r="D17" s="1">
-        <v>77.684514363606795</v>
+        <v>86.356474558512403</v>
       </c>
       <c r="E17" s="8">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="F17" s="8">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,19 +838,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>110.001523335775</v>
+        <v>130.807774861654</v>
       </c>
       <c r="C18" s="1">
-        <v>118.981335957845</v>
+        <v>133.59218343098999</v>
       </c>
       <c r="D18" s="1">
-        <v>90.746757507324205</v>
+        <v>124.44046274821</v>
       </c>
       <c r="E18" s="8">
-        <v>5.24</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F18" s="8">
-        <v>2.89</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,19 +858,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>121.85169728597</v>
+        <v>128.39965438842799</v>
       </c>
       <c r="C19" s="1">
-        <v>119.979860941569</v>
+        <v>125.12795003255199</v>
       </c>
       <c r="D19" s="1">
-        <v>121.60913848877</v>
+        <v>82.941867828369098</v>
       </c>
       <c r="E19" s="8">
-        <v>4.72</v>
+        <v>4.45</v>
       </c>
       <c r="F19" s="8">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,19 +878,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>132.38812383016</v>
+        <v>127.54497782389301</v>
       </c>
       <c r="C20" s="1">
-        <v>96.012905120849595</v>
+        <v>114.795944213867</v>
       </c>
       <c r="D20" s="1">
-        <v>86.356474558512403</v>
+        <v>73.841920216878293</v>
       </c>
       <c r="E20" s="8">
-        <v>4.97</v>
+        <v>5.09</v>
       </c>
       <c r="F20" s="8">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,145 +898,45 @@
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>128.48226674397799</v>
+        <v>118.313032786051</v>
       </c>
       <c r="C21" s="1">
-        <v>104.888339996338</v>
+        <v>110.77480061849</v>
       </c>
       <c r="D21" s="1">
-        <v>65.744256337483705</v>
+        <v>91.706040700276702</v>
       </c>
       <c r="E21" s="8">
-        <v>4.63</v>
+        <v>4.96</v>
       </c>
       <c r="F21" s="8">
-        <v>3.6</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>129.211404164632</v>
-      </c>
-      <c r="C22" s="1">
-        <v>108.990650177002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>97.091014862060604</v>
-      </c>
-      <c r="E22" s="8">
-        <v>5.07</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2.2999999999999998</v>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1">
+        <f>AVERAGE(E2:E21)</f>
+        <v>4.8089473684210535</v>
+      </c>
+      <c r="F22" s="1">
+        <f>AVERAGE(F2:F21)</f>
+        <v>2.9965000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>130.807774861654</v>
-      </c>
-      <c r="C23" s="1">
-        <v>133.59218343098999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>124.44046274821</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1">
-        <v>128.39965438842799</v>
-      </c>
-      <c r="C24" s="1">
-        <v>125.12795003255199</v>
-      </c>
-      <c r="D24" s="1">
-        <v>82.941867828369098</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4.45</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
-        <v>127.54497782389301</v>
-      </c>
-      <c r="C25" s="1">
-        <v>114.795944213867</v>
-      </c>
-      <c r="D25" s="1">
-        <v>73.841920216878293</v>
-      </c>
-      <c r="E25" s="8">
-        <v>5.09</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>118.313032786051</v>
-      </c>
-      <c r="C26" s="1">
-        <v>110.77480061849</v>
-      </c>
-      <c r="D26" s="1">
-        <v>91.706040700276702</v>
-      </c>
-      <c r="E26" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1">
-        <f>AVERAGE(E2:E26)</f>
-        <v>4.8570833333333328</v>
-      </c>
-      <c r="F27" s="1">
-        <f>AVERAGE(F2:F26)</f>
-        <v>3.0087999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <f>STDEV(E2:E26)</f>
-        <v>0.48502334472428871</v>
-      </c>
-      <c r="F28">
-        <f>STDEV(F2:F26)</f>
-        <v>0.60998169371438271</v>
+      <c r="E23">
+        <f>STDEV(E2:E21)</f>
+        <v>0.52338529186697702</v>
+      </c>
+      <c r="F23">
+        <f>STDEV(F2:F21)</f>
+        <v>0.64978761712456334</v>
       </c>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/neutral.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Nummer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>R</t>
   </si>
@@ -95,19 +92,19 @@
     <t>7235</t>
   </si>
   <si>
-    <t>Valenz</t>
-  </si>
-  <si>
-    <t>Arousal</t>
-  </si>
-  <si>
     <t>MEAN</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>4,84</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>valence</t>
+  </si>
+  <si>
+    <t>arousal</t>
   </si>
 </sst>
 </file>
@@ -162,15 +159,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -478,38 +471,39 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="10.88671875" style="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8"/>
+    <col min="6" max="6" width="16.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>119.330960416667</v>
@@ -531,7 +525,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>123.659470833333</v>
@@ -542,10 +536,10 @@
       <c r="D3" s="1">
         <v>73.119770833333305</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2.79</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>4.6100000000000003</v>
       </c>
       <c r="G3" s="5"/>
@@ -553,7 +547,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>127.64155416666701</v>
@@ -567,7 +561,7 @@
       <c r="E4" s="6">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>3.04</v>
       </c>
       <c r="G4" s="5"/>
@@ -575,7 +569,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>122.31058125</v>
@@ -586,8 +580,8 @@
       <c r="D5" s="1">
         <v>75.365695833333305</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
+      <c r="E5" s="6">
+        <v>4.84</v>
       </c>
       <c r="F5" s="6">
         <v>2.79</v>
@@ -595,7 +589,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>127.5778</v>
@@ -615,7 +609,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>129.16018040974899</v>
@@ -626,16 +620,16 @@
       <c r="D7" s="1">
         <v>43.822334289550803</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>2.42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>109.883569081624</v>
@@ -646,16 +640,16 @@
       <c r="D8" s="1">
         <v>75.031581878662095</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>4.97</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>3.16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>127.956188201904</v>
@@ -666,16 +660,16 @@
       <c r="D9" s="1">
         <v>56.221780141194699</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>5.04</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>125.954966227214</v>
@@ -686,16 +680,16 @@
       <c r="D10" s="1">
         <v>68.000747680664105</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>4.88</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>2.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>116.506490071615</v>
@@ -706,16 +700,16 @@
       <c r="D11" s="1">
         <v>25.7163073221842</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>4.93</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>3.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>134.01099522908501</v>
@@ -726,16 +720,16 @@
       <c r="D12" s="1">
         <v>135.12060546875</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>5.21</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>4.17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>129.04301071167001</v>
@@ -746,16 +740,16 @@
       <c r="D13" s="1">
         <v>79.750809987386106</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>4.63</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>2.71</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>128.25571695963501</v>
@@ -766,16 +760,16 @@
       <c r="D14" s="1">
         <v>77.684514363606795</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>4.99</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>110.001523335775</v>
@@ -786,16 +780,16 @@
       <c r="D15" s="1">
         <v>90.746757507324205</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>5.24</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>2.89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>121.85169728597</v>
@@ -806,16 +800,16 @@
       <c r="D16" s="1">
         <v>121.60913848877</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>4.72</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>2.61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>132.38812383016</v>
@@ -826,16 +820,16 @@
       <c r="D17" s="1">
         <v>86.356474558512403</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>4.97</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>2.64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>130.807774861654</v>
@@ -846,16 +840,16 @@
       <c r="D18" s="1">
         <v>124.44046274821</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>4.8099999999999996</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>128.39965438842799</v>
@@ -866,16 +860,16 @@
       <c r="D19" s="1">
         <v>82.941867828369098</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>4.45</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>2.81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>127.54497782389301</v>
@@ -886,16 +880,16 @@
       <c r="D20" s="1">
         <v>73.841920216878293</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>5.09</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>2.77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>118.313032786051</v>
@@ -906,35 +900,35 @@
       <c r="D21" s="1">
         <v>91.706040700276702</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>4.96</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>2.83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>4.8089473684210535</v>
-      </c>
-      <c r="F22" s="1">
+        <v>4.8105000000000002</v>
+      </c>
+      <c r="F22" s="8">
         <f>AVERAGE(F2:F21)</f>
         <v>2.9965000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8">
         <f>STDEV(E2:E21)</f>
-        <v>0.52338529186697702</v>
-      </c>
-      <c r="F23">
+        <v>0.50947315408845795</v>
+      </c>
+      <c r="F23" s="8">
         <f>STDEV(F2:F21)</f>
         <v>0.64978761712456334</v>
       </c>
